--- a/biology/Zoologie/Dendrolycosa_bairdi/Dendrolycosa_bairdi.xlsx
+++ b/biology/Zoologie/Dendrolycosa_bairdi/Dendrolycosa_bairdi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendrolycosa bairdi est une espèce d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendrolycosa bairdi est une espèce d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Champassak au Laos[1],[2]. Elle se rencontre dans le district de Batiengchaleunsouk.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Champassak au Laos,. Elle se rencontre dans le district de Batiengchaleunsouk.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 4,3 mm de long sur 3,5 mm et l'abdomen 5,7 mm de long sur 3,4 mm et la carapace de la femelle paratype mesure 6,2 mm de long sur 4,9 mm et l'abdomen 8,9 mm de long sur 5,5 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 4,3 mm de long sur 3,5 mm et l'abdomen 5,7 mm de long sur 3,4 mm et la carapace de la femelle paratype mesure 6,2 mm de long sur 4,9 mm et l'abdomen 8,9 mm de long sur 5,5 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Ian Baird[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Ian Baird.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jäger, 2011 : Revision of the spider genera Nilus O. Pickard-Cambridge 1876, Sphedanus Thorell 1877 and Dendrolycosa Doleschall 1859 (Araneae: Pisauridae). Zootaxa, no 3046, p. 1-38.</t>
         </is>
